--- a/public/phieuNhap/PhieuNhap_PN20240607225644.xlsx
+++ b/public/phieuNhap/PhieuNhap_PN20240607225644.xlsx
@@ -17,21 +17,21 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
-    <t>Phiếu nhập</t>
-  </si>
-  <si>
-    <t>Thời gian tạo:</t>
+    <t>PHIẾU NHẬP</t>
+  </si>
+  <si>
+    <t>Mã phiếu nhập:</t>
+  </si>
+  <si>
+    <t>PN20240607225644</t>
+  </si>
+  <si>
+    <t>Thời gian:</t>
   </si>
   <si>
     <t>07/06/2024</t>
   </si>
   <si>
-    <t>Mã phiếu nhập:</t>
-  </si>
-  <si>
-    <t>PN20240607225644</t>
-  </si>
-  <si>
     <t>Người lập:</t>
   </si>
   <si>
@@ -77,13 +77,13 @@
     <t>Google Tivi QLED TCL 4K 65 inch 65Q646</t>
   </si>
   <si>
-    <t>Tổng tiền</t>
+    <t>Tổng tiền nhập hàng</t>
   </si>
   <si>
     <t>Số tiền trả</t>
   </si>
   <si>
-    <t>Số tiền nợ</t>
+    <t>Số tiền nợ nhà cung cấp</t>
   </si>
 </sst>
 </file>
@@ -91,7 +91,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -101,16 +101,43 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -118,12 +145,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,12 +473,12 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A12" sqref="A12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="52.987" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="15.282" bestFit="true" customWidth="true" style="0"/>
@@ -440,23 +487,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -489,86 +534,90 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>3100000.0</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>18600000.0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>2000000.0</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>2000000.0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E10">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
         <v>20600000.0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E12">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
         <v>20600000.0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
